--- a/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造08.xlsx
+++ b/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造08.xlsx
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>マジックナンバー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>i8[4]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>u32</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -40,23 +36,237 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>u8[12]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0xdb, 'D', 'b', 0x00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(16)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>08：終端部</t>
+    <t>u32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列データ数</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列データ[n]</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※文字列データ数分続く…</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_STRING_REF[n]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列参照データ[n]</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>シュウタン</t>
-    </rPh>
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データはCRC値順に並び、バイナリサーチ可能な状態</t>
+    <rPh sb="7" eb="8">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char[n][]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※文字列は可変長データ</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カヘンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u8[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列の実データ位置のオフセット　※デバッグデータ部のトップからのオフセット</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列CRC値</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実データオフセット</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4 + ?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列のCRC値　※検索／重複定義検出用</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ケンシュツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列データサイズ</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※デバッグ用データはランタイム時に検索が行われるため、全ての情報を残しておく。</t>
     <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※最後のパディングは含まないサイズ。</t>
+    <rPh sb="1" eb="3">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　この「デバッグデータ部」自体が存在しない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※データ構造やデータ変換時のオプションにより、デバッグ用の文字列が一つも無かった場合は、</t>
+    <rPh sb="4" eb="6">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヘンカンジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「識別ID」や「計算式」のような、数値化される文字列データを、ランタイム時にデバッグ表示するためのデータ。</t>
+    <rPh sb="18" eb="21">
+      <t>スウチカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08：デバッグデータ部：T_GDBIN_DEBUG</t>
+    <rPh sb="10" eb="11">
       <t>ブ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -66,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +294,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -113,6 +331,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -123,12 +356,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -137,6 +370,106 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -145,6 +478,170 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -250,12 +747,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thick">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -276,101 +817,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -379,95 +851,167 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -753,76 +1297,219 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="2.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="A2" s="36"/>
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14">
+        <v>4</v>
+      </c>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
         <v>4</v>
       </c>
-      <c r="F3" s="22">
+      <c r="G4" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>4</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A7" s="36"/>
+      <c r="B7" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="F7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="51">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="33" t="s">
         <v>2</v>
       </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="17"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
